--- a/チェックリスト.xlsx
+++ b/チェックリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cre\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA117A9-BDE1-40BA-B2F2-48F000D40E0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A260430-EAB0-429A-A9D2-895446C11E7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{763CB05E-9BFD-4B6B-825B-022FB82FE4E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -116,6 +116,61 @@
   </si>
   <si>
     <t>「教科,平均点,順位,成績,判定」固定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>境界値テスト</t>
+    <rPh sb="0" eb="3">
+      <t>キョウカイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2回30点以下を取った場合問題なし、ただし10点以下を取った場合不合格</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>フゴウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３回30点以下を取った場合再テスト、さらに10点以下を取った場合不合格</t>
+    <rPh sb="13" eb="14">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４回30点以下を取った場合再テスト、さらに10点以下を取った場合不合格</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -518,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3005D7F-C563-45FE-BB6B-736291B4A603}">
   <dimension ref="A2:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:N13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9:V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -662,7 +717,9 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -679,7 +736,9 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="S6" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
@@ -706,7 +765,9 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="S7" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
@@ -733,7 +794,9 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
+      <c r="S8" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
